--- a/data/trans_dic/P39A4_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P39A4_2023-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>82,12; 94,19</t>
+          <t>82,49; 93,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,73; 95,9</t>
+          <t>87,36; 95,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,44; 93,82</t>
+          <t>86,45; 93,97</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>89,63; 96,44</t>
+          <t>89,72; 96,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>80,6; 94,27</t>
+          <t>80,84; 94,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,16; 94,42</t>
+          <t>86,92; 94,36</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,42; 96,0</t>
+          <t>91,49; 95,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,63; 95,14</t>
+          <t>91,78; 95,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>92,17; 94,99</t>
+          <t>92,24; 95,0</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>92,38; 96,29</t>
+          <t>92,45; 96,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91,04; 94,29</t>
+          <t>91,08; 94,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92,3; 94,86</t>
+          <t>92,29; 94,84</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>89,65; 93,95</t>
+          <t>89,71; 94,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>93,43; 96,27</t>
+          <t>93,43; 96,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>92,13; 94,71</t>
+          <t>92,16; 94,74</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>89,2; 93,01</t>
+          <t>89,16; 92,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>90,72; 95,14</t>
+          <t>90,95; 95,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>90,66; 93,68</t>
+          <t>90,67; 94,02</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>91,48; 93,7</t>
+          <t>91,48; 93,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>91,37; 93,82</t>
+          <t>91,34; 93,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>91,76; 93,46</t>
+          <t>91,85; 93,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A4_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P39A4_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>82,49; 93,81</t>
+          <t>82,12; 94,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,36; 95,76</t>
+          <t>87,73; 95,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,45; 93,97</t>
+          <t>86,44; 93,82</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>89,72; 96,38</t>
+          <t>89,63; 96,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>80,84; 94,29</t>
+          <t>80,6; 94,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,92; 94,36</t>
+          <t>86,16; 94,42</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,49; 95,77</t>
+          <t>91,42; 96,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,78; 95,14</t>
+          <t>91,63; 95,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>92,24; 95,0</t>
+          <t>92,17; 94,99</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>92,45; 96,28</t>
+          <t>92,38; 96,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91,08; 94,3</t>
+          <t>91,04; 94,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92,29; 94,84</t>
+          <t>92,3; 94,86</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>89,71; 94,02</t>
+          <t>89,65; 93,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>93,43; 96,11</t>
+          <t>93,43; 96,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>92,16; 94,74</t>
+          <t>92,13; 94,71</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>89,16; 92,94</t>
+          <t>89,2; 93,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>90,95; 95,06</t>
+          <t>90,72; 95,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>90,67; 94,02</t>
+          <t>90,66; 93,68</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>91,48; 93,77</t>
+          <t>91,48; 93,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>91,34; 93,76</t>
+          <t>91,37; 93,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>91,85; 93,5</t>
+          <t>91,76; 93,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A4_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P39A4_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>88,82%</t>
+          <t>88,39%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>92,69%</t>
+          <t>92,4%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>90,71%</t>
+          <t>90,15%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>82,12; 94,19</t>
+          <t>80,64; 93,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,73; 95,9</t>
+          <t>87,63; 95,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,44; 93,82</t>
+          <t>85,54; 93,62</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>93,56%</t>
+          <t>93,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>90,47%</t>
+          <t>80,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>91,87%</t>
+          <t>85,9%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>89,63; 96,44</t>
+          <t>89,06; 96,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>80,6; 94,27</t>
+          <t>52,12; 93,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,16; 94,42</t>
+          <t>64,36; 93,89</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>93,95%</t>
+          <t>93,75%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>93,48%</t>
+          <t>93,41%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>93,71%</t>
+          <t>93,58%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,42; 96,0</t>
+          <t>91,17; 95,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,63; 95,14</t>
+          <t>91,57; 95,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>92,17; 94,99</t>
+          <t>92,02; 94,87</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>94,58%</t>
+          <t>95,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>92,8%</t>
+          <t>92,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>93,68%</t>
+          <t>94,45%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>92,38; 96,29</t>
+          <t>93,39; 98,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91,04; 94,29</t>
+          <t>90,89; 94,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92,3; 94,86</t>
+          <t>92,86; 96,81</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>92,02%</t>
+          <t>91,87%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>94,96%</t>
+          <t>94,85%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>93,49%</t>
+          <t>93,35%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>89,65; 93,95</t>
+          <t>89,38; 93,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>93,43; 96,27</t>
+          <t>93,31; 96,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>92,13; 94,71</t>
+          <t>91,97; 94,58</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>91,23%</t>
+          <t>92,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>92,58%</t>
+          <t>95,5%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>92,02%</t>
+          <t>94,36%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>89,2; 93,01</t>
+          <t>89,88; 94,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>90,72; 95,14</t>
+          <t>92,48; 98,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>90,66; 93,68</t>
+          <t>92,22; 97,42</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>92,62%</t>
+          <t>89,22%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>92,87%</t>
+          <t>89,86%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>92,75%</t>
+          <t>89,59%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>91,48; 93,7</t>
+          <t>85,77; 92,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>91,37; 93,82</t>
+          <t>87,05; 91,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>91,76; 93,46</t>
+          <t>87,45; 91,34</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>92,86%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>91,46%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>92,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>91,63; 94,69</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>83,55; 93,62</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>87,98; 93,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P39A4_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P39A4_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>80,64; 93,84</t>
+          <t>80,99; 93,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,63; 95,72</t>
+          <t>87,17; 95,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>85,54; 93,62</t>
+          <t>85,11; 93,52</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>89,06; 96,23</t>
+          <t>89,42; 96,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>52,12; 93,93</t>
+          <t>50,78; 94,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64,36; 93,89</t>
+          <t>61,81; 93,96</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,17; 95,86</t>
+          <t>90,94; 95,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,57; 95,1</t>
+          <t>91,25; 95,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>92,02; 94,87</t>
+          <t>91,97; 94,79</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>93,39; 98,21</t>
+          <t>93,28; 98,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>90,89; 94,16</t>
+          <t>91,01; 94,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92,86; 96,81</t>
+          <t>92,91; 96,62</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>89,38; 93,86</t>
+          <t>89,34; 93,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>93,31; 96,18</t>
+          <t>93,41; 96,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>91,97; 94,58</t>
+          <t>91,95; 94,57</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>89,88; 94,59</t>
+          <t>89,94; 94,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>92,48; 98,24</t>
+          <t>92,51; 98,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>92,22; 97,42</t>
+          <t>92,28; 97,22</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>85,77; 92,14</t>
+          <t>85,85; 92,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>87,05; 91,9</t>
+          <t>87,46; 92,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>87,45; 91,34</t>
+          <t>87,54; 91,36</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>91,63; 94,69</t>
+          <t>91,53; 94,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>83,55; 93,62</t>
+          <t>83,21; 93,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>87,98; 93,55</t>
+          <t>88,25; 93,4</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que sí diría que estar con dolor o malestar en los brazos o en el pecho es un síntoma de que a alguien le está dando un ataque al corazón</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>311136</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>254017</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>565152</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>285105; 329544</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>239637; 263666</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>533582; 586326</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>364367</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>393627</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>757994</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>349338; 375498</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>249720; 462599</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>545436; 829094</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>754</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>486065</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>488335</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>974400</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>471460; 495725</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>477036; 497131</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>957608; 987030</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1019</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1612</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>823410</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>608025</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1431434</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>801696; 845464</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>597138; 617879</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1408108; 1464310</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>901</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1474</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>487250</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>495658</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>982908</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>473872; 498058</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>488156; 502659</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>968177; 995840</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1198</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>314298</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>551443</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>865741</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>305851; 321621</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>534230; 568265</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>846656; 892059</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>221729</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>313958</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>535688</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>213356; 228634</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>305574; 321663</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>523436; 546275</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2891</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>7492</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>3008256</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>3105063</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>6113319</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2965068; 3063135</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2824859; 3182742</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>5855033; 6196508</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>